--- a/Research/BLS.gov dataset.xlsx
+++ b/Research/BLS.gov dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgarn\OneDrive\Desktop\SMU - MS Data Science\Courses\GitHub\DS_6306_weekly_assignments\Project_2\Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgarn\OneDrive\Desktop\SMU - MS Data Science\Courses\GitHub\DS_6306_weekly_assignments\Project_2\CaseStudy2DDS\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AD6340-5C52-46CA-B56F-8C8D910CBD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133C2257-A1DE-469D-8EFC-43C702A358A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF4F175F-3AFC-4B28-87A6-D3F6F54E640E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF4F175F-3AFC-4B28-87A6-D3F6F54E640E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,6 +864,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11411111111111109"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -955,7 +963,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
                 <c:pt idx="0">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>7.0330000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.0000000000000001E-3</c:v>
@@ -1045,7 +1053,7 @@
                   <c:v>1.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-6.0000000000000001E-3</c:v>
+                  <c:v>-6.3600000000000006E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.02</c:v>
@@ -1727,7 +1735,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
                 <c:pt idx="0">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>7.0330000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.0000000000000001E-3</c:v>
@@ -1817,7 +1825,7 @@
                   <c:v>1.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-6.0000000000000001E-3</c:v>
+                  <c:v>-6.3600000000000006E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.02</c:v>
@@ -2282,7 +2290,1757 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Attrition % of companies 499-999 employees by quarter 1992-2022</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Average 0.2967%</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$7:$M$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>0.70330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6.3600000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-11.6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65E7-4440-B788-04F463196178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$7:$N$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>7.0330000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.3000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6.3600000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.8000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.8000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.8000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-2E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-2E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.8000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-2E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-1.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.11599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.2000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.3000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-65E7-4440-B788-04F463196178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$7:$O$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-65E7-4440-B788-04F463196178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1012872335"/>
+        <c:axId val="1012872815"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1012872335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1012872815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1012872815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1012872335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2838,6 +4596,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2871,6 +5150,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13EB12B7-5EC6-2A36-454C-7447B8C91CF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3178,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33651AB0-C210-4E6C-B59D-3D93DBB84921}">
   <dimension ref="C3:O158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="X137" sqref="X137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45:M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3206,12 +5521,15 @@
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="L7">
+        <v>1992</v>
+      </c>
       <c r="M7">
-        <v>0.3</v>
+        <v>0.70330000000000004</v>
       </c>
       <c r="N7">
         <f t="shared" ref="N7:N70" si="0">M7/100</f>
-        <v>3.0000000000000001E-3</v>
+        <v>7.0330000000000002E-3</v>
       </c>
       <c r="O7" t="s">
         <v>119</v>
@@ -3241,6 +5559,9 @@
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="L10">
+        <v>1993</v>
+      </c>
       <c r="M10">
         <v>-0.8</v>
       </c>
@@ -3306,6 +5627,9 @@
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L15">
+        <v>1994</v>
+      </c>
       <c r="M15">
         <v>-0.8</v>
       </c>
@@ -3371,6 +5695,9 @@
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="L20">
+        <v>1995</v>
+      </c>
       <c r="M20">
         <v>-0.8</v>
       </c>
@@ -3436,6 +5763,9 @@
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="L25">
+        <v>1996</v>
+      </c>
       <c r="M25">
         <v>-1.5</v>
       </c>
@@ -3501,6 +5831,9 @@
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="L30">
+        <v>1997</v>
+      </c>
       <c r="M30">
         <v>-1.3</v>
       </c>
@@ -3566,6 +5899,9 @@
       <c r="C35" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="L35">
+        <v>1998</v>
+      </c>
       <c r="M35">
         <v>-0.6</v>
       </c>
@@ -3631,6 +5967,9 @@
       <c r="C40" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="L40">
+        <v>1999</v>
+      </c>
       <c r="M40">
         <v>-1.5</v>
       </c>
@@ -3696,12 +6035,15 @@
       <c r="C45" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="L45">
+        <v>2000</v>
+      </c>
       <c r="M45">
-        <v>-0.6</v>
+        <v>-6.3600000000000004E-2</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
-        <v>-6.0000000000000001E-3</v>
+        <v>-6.3600000000000006E-4</v>
       </c>
       <c r="O45" t="s">
         <v>149</v>
@@ -3761,6 +6103,9 @@
       <c r="C50" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="L50">
+        <v>2001</v>
+      </c>
       <c r="M50">
         <v>-2.1</v>
       </c>
@@ -3826,6 +6171,9 @@
       <c r="C55" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="L55">
+        <v>2002</v>
+      </c>
       <c r="M55">
         <v>-1.8</v>
       </c>
@@ -3891,6 +6239,9 @@
       <c r="C60" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="L60">
+        <v>2003</v>
+      </c>
       <c r="M60">
         <v>-1.8</v>
       </c>
@@ -3956,6 +6307,9 @@
       <c r="C65" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="L65">
+        <v>2004</v>
+      </c>
       <c r="M65">
         <v>-0.9</v>
       </c>
@@ -4021,6 +6375,9 @@
       <c r="C70" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="L70">
+        <v>2005</v>
+      </c>
       <c r="M70">
         <v>-1.1000000000000001</v>
       </c>
@@ -4040,7 +6397,7 @@
         <v>1.8</v>
       </c>
       <c r="N71">
-        <f t="shared" ref="N71:N134" si="1">M71/100</f>
+        <f t="shared" ref="N71:N133" si="1">M71/100</f>
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="O71" t="s">
@@ -4086,6 +6443,9 @@
       <c r="C75" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="L75">
+        <v>2006</v>
+      </c>
       <c r="M75">
         <v>-0.3</v>
       </c>
@@ -4151,6 +6511,9 @@
       <c r="C80" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="L80">
+        <v>2007</v>
+      </c>
       <c r="M80">
         <v>-0.7</v>
       </c>
@@ -4216,6 +6579,9 @@
       <c r="C85" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="L85">
+        <v>2008</v>
+      </c>
       <c r="M85">
         <v>-1.1000000000000001</v>
       </c>
@@ -4281,6 +6647,9 @@
       <c r="C90" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="L90">
+        <v>2009</v>
+      </c>
       <c r="M90">
         <v>-3.9</v>
       </c>
@@ -4346,6 +6715,9 @@
       <c r="C95" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="L95">
+        <v>2010</v>
+      </c>
       <c r="M95">
         <v>-0.9</v>
       </c>
@@ -4411,6 +6783,9 @@
       <c r="C100" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="L100">
+        <v>2011</v>
+      </c>
       <c r="M100">
         <v>-0.7</v>
       </c>
@@ -4476,6 +6851,9 @@
       <c r="C105" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="L105">
+        <v>2012</v>
+      </c>
       <c r="M105">
         <v>-0.2</v>
       </c>
@@ -4541,6 +6919,9 @@
       <c r="C110" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="L110">
+        <v>2013</v>
+      </c>
       <c r="M110">
         <v>-0.2</v>
       </c>
@@ -4606,6 +6987,9 @@
       <c r="C115" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="L115">
+        <v>2014</v>
+      </c>
       <c r="M115">
         <v>-0.4</v>
       </c>
@@ -4671,6 +7055,9 @@
       <c r="C120" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="L120">
+        <v>2015</v>
+      </c>
       <c r="M120">
         <v>-0.8</v>
       </c>
@@ -4736,6 +7123,9 @@
       <c r="C125" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="L125">
+        <v>2016</v>
+      </c>
       <c r="M125">
         <v>-1</v>
       </c>
@@ -4801,6 +7191,9 @@
       <c r="C130" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="L130">
+        <v>2017</v>
+      </c>
       <c r="M130">
         <v>-0.3</v>
       </c>
@@ -4866,6 +7259,9 @@
       <c r="C135" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="L135">
+        <v>2018</v>
+      </c>
       <c r="M135">
         <v>-0.2</v>
       </c>
@@ -4931,6 +7327,9 @@
       <c r="C140" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="L140">
+        <v>2019</v>
+      </c>
       <c r="M140">
         <v>-0.6</v>
       </c>
@@ -4996,6 +7395,9 @@
       <c r="C145" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="L145">
+        <v>2020</v>
+      </c>
       <c r="M145">
         <v>-1.4</v>
       </c>
@@ -5061,6 +7463,9 @@
       <c r="C150" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="L150">
+        <v>2021</v>
+      </c>
       <c r="M150">
         <v>0.1</v>
       </c>
@@ -5126,6 +7531,9 @@
       <c r="C155" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="L155">
+        <v>2022</v>
+      </c>
       <c r="M155">
         <v>0.4</v>
       </c>
@@ -5155,7 +7563,7 @@
     <row r="158" spans="3:15">
       <c r="N158">
         <f>AVERAGE(N7:N156)</f>
-        <v>2.9666666666666682E-3</v>
+        <v>3.0449750000000005E-3</v>
       </c>
     </row>
   </sheetData>
